--- a/monoclinic_ac/py_solution_ac/ga_lsq_run1_N2_oscillator_parameters.xlsx
+++ b/monoclinic_ac/py_solution_ac/ga_lsq_run1_N2_oscillator_parameters.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1174.00526812701</v>
+        <v>1594.038390195836</v>
       </c>
       <c r="C2">
-        <v>99.99999999999818</v>
+        <v>99.8982733472852</v>
       </c>
       <c r="D2">
-        <v>671446.7434650917</v>
+        <v>136490.0204314928</v>
       </c>
       <c r="E2">
-        <v>-3.268095635226621</v>
+        <v>113.3835468863406</v>
       </c>
       <c r="F2">
-        <v>90.10316438024675</v>
+        <v>89.2458770839819</v>
       </c>
       <c r="G2">
-        <v>3.244913498567431</v>
+        <v>3.415868100543484</v>
       </c>
       <c r="H2">
-        <v>1.359712183385448E-17</v>
+        <v>0.06566751289472056</v>
       </c>
       <c r="I2">
-        <v>2.037631584633316</v>
+        <v>3.305335025187567</v>
       </c>
       <c r="J2">
-        <v>4.999999999999999</v>
+        <v>0.24853036134203</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1041.734326096502</v>
+        <v>1286.633308854048</v>
       </c>
       <c r="C3">
-        <v>67.25793081668046</v>
+        <v>98.02381420879051</v>
       </c>
       <c r="D3">
-        <v>754799.4489037647</v>
+        <v>538494.1164316395</v>
       </c>
       <c r="E3">
-        <v>87.19273740326747</v>
+        <v>-1.712997481590489</v>
       </c>
       <c r="F3">
-        <v>89.99834933455526</v>
+        <v>90.18946970337788</v>
       </c>
       <c r="G3">
-        <v>3.244913498567431</v>
+        <v>3.415868100543484</v>
       </c>
       <c r="H3">
-        <v>1.359712183385448E-17</v>
+        <v>0.06566751289472056</v>
       </c>
       <c r="I3">
-        <v>2.037631584633316</v>
+        <v>3.305335025187567</v>
       </c>
       <c r="J3">
-        <v>4.999999999999999</v>
+        <v>0.24853036134203</v>
       </c>
     </row>
   </sheetData>

--- a/monoclinic_ac/py_solution_ac/ga_lsq_run1_N2_oscillator_parameters.xlsx
+++ b/monoclinic_ac/py_solution_ac/ga_lsq_run1_N2_oscillator_parameters.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1594.038390195836</v>
+        <v>1028.790939555479</v>
       </c>
       <c r="C2">
-        <v>99.8982733472852</v>
+        <v>22.35477629359417</v>
       </c>
       <c r="D2">
-        <v>136490.0204314928</v>
+        <v>678.7266748175308</v>
       </c>
       <c r="E2">
-        <v>113.3835468863406</v>
+        <v>-176.6379975324597</v>
       </c>
       <c r="F2">
-        <v>89.2458770839819</v>
+        <v>90.00999947455506</v>
       </c>
       <c r="G2">
-        <v>3.415868100543484</v>
+        <v>2.747170020623409</v>
       </c>
       <c r="H2">
-        <v>0.06566751289472056</v>
+        <v>1.379401063296131</v>
       </c>
       <c r="I2">
-        <v>3.305335025187567</v>
+        <v>1.756020232920774</v>
       </c>
       <c r="J2">
-        <v>0.24853036134203</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1286.633308854048</v>
+        <v>1166.22353461753</v>
       </c>
       <c r="C3">
-        <v>98.02381420879051</v>
+        <v>36.13992925214172</v>
       </c>
       <c r="D3">
-        <v>538494.1164316395</v>
+        <v>676.1695283875995</v>
       </c>
       <c r="E3">
-        <v>-1.712997481590489</v>
+        <v>-134.8861330276001</v>
       </c>
       <c r="F3">
-        <v>90.18946970337788</v>
+        <v>90.00994779766461</v>
       </c>
       <c r="G3">
-        <v>3.415868100543484</v>
+        <v>2.747170020623409</v>
       </c>
       <c r="H3">
-        <v>0.06566751289472056</v>
+        <v>1.379401063296131</v>
       </c>
       <c r="I3">
-        <v>3.305335025187567</v>
+        <v>1.756020232920774</v>
       </c>
       <c r="J3">
-        <v>0.24853036134203</v>
+        <v>4.999999999999999</v>
       </c>
     </row>
   </sheetData>
